--- a/some results.xlsx
+++ b/some results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flo\Desktop\Studium\Info\FS22\BA\EWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F7B845-0B9F-4581-80B4-CA3EACB6D81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198EA087-E27A-4DC6-BDD0-2391CFD0BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>[[97.76], [94.69, 97.87], [66.4, 92.83, 97.73], [23.19, 54.83, 89.82, 96.85], [14.83, 31.6, 67.4, 91.49, 96.1], [9.37, 19.26, 44.22, 82.01, 91.2, 94.73], [10.21, 15.52, 27.36, 65.91, 84.98, 89.63, 93.18], [14.25, 14.01, 25.16, 49.67, 75.12, 82.84, 88.65, 92.23], [16.56, 21.49, 22.51, 37.5, 61.48, 77.19, 86.4, 88.11, 90.06], [18.21, 20.98, 22.6, 34.91, 55.0, 64.38, 76.56, 79.06, 81.89, 89.34]]</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>[[97.61], [97.53, 97.11], [97.4, 96.92, 94.92], [97.24, 96.71, 94.83, 94.6], [95.81, 93.51, 91.1, 91.39, 91.69], [95.69, 93.65, 91.28, 91.32, 91.66, 87.27], [91.58, 90.74, 76.46, 87.47, 80.7, 81.42, 85.06], [90.38, 87.91, 71.36, 87.14, 70.01, 81.42, 82.46, 82.45], [89.03, 87.24, 70.24, 86.22, 69.57, 81.33, 82.3, 82.15, 78.66], [87.61, 86.8, 70.88, 86.67, 71.48, 80.65, 82.02, 81.14, 78.75, 73.99]]</t>
+  </si>
+  <si>
+    <t>[[97.83], [97.69, 97.5], [97.49, 97.52, 96.93], [96.73, 97.26, 96.4, 95.93], [94.87, 96.95, 95.82, 95.76, 95.0], [94.43, 96.78, 96.14, 95.9, 94.96, 93.75], [94.06, 96.3, 95.99, 94.96, 94.56, 93.13, 94.15], [88.88, 92.65, 94.43, 93.13, 93.69, 92.23, 92.62, 92.08], [87.69, 90.86, 93.99, 92.22, 93.47, 91.77, 92.52, 92.12, 91.64], [85.17, 89.33, 93.7, 91.53, 93.53, 91.84, 92.63, 91.82, 91.7, 91.07]]</t>
+  </si>
+  <si>
+    <t>1e3, 0.7, ff</t>
+  </si>
+  <si>
+    <t>[[97.86], [97.54, 97.13], [97.32, 97.31, 96.9], [96.89, 96.88, 96.55, 95.96], [96.12, 96.41, 96.63, 96.14, 95.64], [95.52, 96.42, 96.6, 96.18, 95.71, 94.62], [94.84, 96.17, 96.28, 95.94, 95.18, 94.55, 93.36], [91.33, 95.71, 94.78, 94.98, 94.53, 93.89, 93.06, 92.88], [89.49, 93.68, 93.08, 94.16, 93.69, 93.27, 92.99, 92.66, 92.25], [88.66, 92.92, 92.7, 92.58, 92.79, 92.02, 91.84, 91.66, 91.89, 91.72]]</t>
+  </si>
+  <si>
+    <t>1e3, 0.7, mc</t>
   </si>
 </sst>
 </file>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +588,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
